--- a/classification/droptc/modern-bert/freeze/87212562/prediction.xlsx
+++ b/classification/droptc/modern-bert/freeze/87212562/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4096014797687531</v>
+        <v>0.267896980047226</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6060334444046021</v>
+        <v>0.3923958241939545</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7615171670913696</v>
+        <v>0.3557218313217163</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7379499077796936</v>
+        <v>0.6103765964508057</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5321147441864014</v>
+        <v>0.6250494718551636</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.8663394451141357</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6426293849945068</v>
+        <v>0.4850050210952759</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.2665750682353973</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8581766486167908</v>
+        <v>0.3972519934177399</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7614348530769348</v>
+        <v>0.6460925936698914</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7585315704345703</v>
+        <v>0.3228158056735992</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5712313055992126</v>
+        <v>0.7042933106422424</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.835422694683075</v>
+        <v>0.467694878578186</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.4337133765220642</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.377309262752533</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.9050070643424988</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3964706361293793</v>
+        <v>0.5864566564559937</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.8093105554580688</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.6611656546592712</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8637065887451172</v>
+        <v>0.720879852771759</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3987219035625458</v>
+        <v>0.5554400086402893</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3920151591300964</v>
+        <v>0.3316835165023804</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4470960199832916</v>
+        <v>0.360679030418396</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5326834321022034</v>
+        <v>0.6903824806213379</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.3875009715557098</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8379799723625183</v>
+        <v>0.831946849822998</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.7654268145561218</v>
       </c>
     </row>
     <row r="29">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.3142959177494049</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7605918645858765</v>
+        <v>0.8672606348991394</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.610224723815918</v>
+        <v>0.5476584434509277</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7381153106689453</v>
+        <v>0.8658924698829651</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9410161972045898</v>
+        <v>0.8792973160743713</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7731558680534363</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7546626925468445</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6815612316131592</v>
+        <v>0.454379141330719</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3655989468097687</v>
+        <v>0.5117285847663879</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4823233783245087</v>
+        <v>0.4012661278247833</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7091756463050842</v>
+        <v>0.8397675752639771</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7464362382888794</v>
+        <v>0.6775376200675964</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6017884016036987</v>
+        <v>0.3557218313217163</v>
       </c>
     </row>
     <row r="42">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5839254856109619</v>
+        <v>0.5972757339477539</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6112000942230225</v>
+        <v>0.9050070643424988</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5030508637428284</v>
+        <v>0.2665750682353973</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6033989787101746</v>
+        <v>0.7186386585235596</v>
       </c>
     </row>
     <row r="46">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1719,10 +1719,10 @@
         </is>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7698906660079956</v>
+        <v>0.4980424642562866</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6774432063102722</v>
+        <v>0.8071830868721008</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6084575057029724</v>
+        <v>0.7057837843894958</v>
       </c>
     </row>
     <row r="49">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.7719293236732483</v>
       </c>
     </row>
     <row r="50">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6210138201713562</v>
+        <v>0.3705819249153137</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5918460488319397</v>
+        <v>0.9412850141525269</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8660696148872375</v>
+        <v>0.5879476070404053</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.258831262588501</v>
+        <v>0.6548221707344055</v>
       </c>
     </row>
     <row r="54">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6663077473640442</v>
+        <v>0.770531177520752</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6057952642440796</v>
+        <v>0.577910840511322</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5789650082588196</v>
+        <v>0.8611453175544739</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6966500878334045</v>
+        <v>0.6304453611373901</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.385038435459137</v>
+        <v>0.7478001117706299</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.795908510684967</v>
+        <v>0.360679030418396</v>
       </c>
     </row>
     <row r="60">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.3775854110717773</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.412559300661087</v>
+        <v>0.4198043048381805</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7020283937454224</v>
+        <v>0.4350204467773438</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8193920254707336</v>
+        <v>0.7002376317977905</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.300607293844223</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2936906218528748</v>
+        <v>0.8125882148742676</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.8289545178413391</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.4058509171009064</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8234368562698364</v>
+        <v>0.6270518898963928</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7050462365150452</v>
+        <v>0.7453069686889648</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9026284217834473</v>
+        <v>0.8171480298042297</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6391913890838623</v>
+        <v>0.8301010727882385</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.703619658946991</v>
+        <v>0.7961376905441284</v>
       </c>
     </row>
     <row r="73">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7607497572898865</v>
+        <v>0.2852725386619568</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6459665298461914</v>
+        <v>0.8408204317092896</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8360492587089539</v>
+        <v>0.8609633445739746</v>
       </c>
     </row>
     <row r="76">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7410905957221985</v>
+        <v>0.2811081409454346</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7478903532028198</v>
+        <v>0.5879721641540527</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8702749609947205</v>
+        <v>0.5875372290611267</v>
       </c>
     </row>
     <row r="79">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2643,10 +2643,10 @@
         </is>
       </c>
       <c r="E79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8081175684928894</v>
+        <v>0.5091918110847473</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5653080344200134</v>
+        <v>0.6166729927062988</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6413590908050537</v>
+        <v>0.8792973160743713</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7034230828285217</v>
+        <v>0.6651365756988525</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4932194948196411</v>
+        <v>0.8268238306045532</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7928641438484192</v>
+        <v>0.7295374274253845</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3275575339794159</v>
+        <v>0.6528514623641968</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5352857708930969</v>
+        <v>0.7500110864639282</v>
       </c>
     </row>
     <row r="87">
@@ -2863,14 +2863,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5125665068626404</v>
+        <v>0.4003715813159943</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6810833215713501</v>
+        <v>0.7548350095748901</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.8564029932022095</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.5506178736686707</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8558724522590637</v>
+        <v>0.9050070643424988</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.410637229681015</v>
+        <v>0.7056671380996704</v>
       </c>
     </row>
     <row r="93">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5792056322097778</v>
+        <v>0.3831785917282104</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9518547058105469</v>
+        <v>0.5989066958427429</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6347335577011108</v>
+        <v>0.7676376700401306</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4968899786472321</v>
+        <v>0.6861433982849121</v>
       </c>
     </row>
     <row r="97">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6414059400558472</v>
+        <v>0.7314425110816956</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.610224723815918</v>
+        <v>0.4337133765220642</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6620907187461853</v>
+        <v>0.2558172941207886</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6049568057060242</v>
+        <v>0.2691871225833893</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5957988500595093</v>
+        <v>0.5178639888763428</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8114293813705444</v>
+        <v>0.7542823553085327</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4914695024490356</v>
+        <v>0.7714294791221619</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6336064338684082</v>
+        <v>0.8173239827156067</v>
       </c>
     </row>
     <row r="105">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6919984817504883</v>
+        <v>0.6207247972488403</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7156000733375549</v>
+        <v>0.2712524235248566</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7332616448402405</v>
+        <v>0.6056869029998779</v>
       </c>
     </row>
     <row r="108">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5931234359741211</v>
+        <v>0.7506024241447449</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.8724375367164612</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.281939297914505</v>
+        <v>0.7781134247779846</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6811848282814026</v>
+        <v>0.5538453459739685</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.6985151171684265</v>
       </c>
     </row>
     <row r="113">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5314717888832092</v>
+        <v>0.9491482973098755</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2590746581554413</v>
+        <v>0.6321545839309692</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.3850323855876923</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7699278593063354</v>
+        <v>0.5758408308029175</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6204272508621216</v>
+        <v>0.8305150270462036</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2489601224660873</v>
+        <v>0.7144390940666199</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4333881735801697</v>
+        <v>0.2811081409454346</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8460242748260498</v>
+        <v>0.6140164732933044</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8240159153938293</v>
+        <v>0.6176730394363403</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3939111828804016</v>
+        <v>0.5032016038894653</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7816299796104431</v>
+        <v>0.6988456845283508</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7663061618804932</v>
+        <v>0.9050070643424988</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5257512927055359</v>
+        <v>0.2760814130306244</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7181354761123657</v>
+        <v>0.7382258772850037</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.6232619881629944</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.782905101776123</v>
+        <v>0.3082830309867859</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2566835880279541</v>
+        <v>0.375207245349884</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4728507697582245</v>
+        <v>0.393604040145874</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.3750543594360352</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7606334686279297</v>
+        <v>0.6784783005714417</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7739090919494629</v>
+        <v>0.3740894496440887</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5765131115913391</v>
+        <v>0.7338786721229553</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8331655859947205</v>
+        <v>0.6294535398483276</v>
       </c>
     </row>
     <row r="136">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.5714812278747559</v>
       </c>
     </row>
     <row r="137">
@@ -4263,14 +4263,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5277919173240662</v>
+        <v>0.3454100489616394</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7061224579811096</v>
+        <v>0.9050070643424988</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7430756688117981</v>
+        <v>0.2712524235248566</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3250497281551361</v>
+        <v>0.4225082099437714</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8289533853530884</v>
+        <v>0.9419885873794556</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7032645344734192</v>
+        <v>0.5619834065437317</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4723906815052032</v>
+        <v>0.6438287496566772</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9558462500572205</v>
+        <v>0.767917275428772</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.4200733602046967</v>
+        <v>0.6847602725028992</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3422785103321075</v>
+        <v>0.5747452974319458</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.314613401889801</v>
+        <v>0.6548221707344055</v>
       </c>
     </row>
     <row r="148">
@@ -4571,14 +4571,14 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4789038896560669</v>
+        <v>0.3099173903465271</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.9050070643424988</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5095199346542358</v>
+        <v>0.4025090932846069</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.7404860854148865</v>
+        <v>0.9096221327781677</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8819120526313782</v>
+        <v>0.9050070643424988</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7467293739318848</v>
+        <v>0.5064510703086853</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.586546778678894</v>
+        <v>0.6056869029998779</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3065287470817566</v>
+        <v>0.6884286403656006</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4188736379146576</v>
+        <v>0.7731450200080872</v>
       </c>
     </row>
     <row r="157">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4827,10 +4827,10 @@
         </is>
       </c>
       <c r="E157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7291218638420105</v>
+        <v>0.3582037091255188</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6180161237716675</v>
+        <v>0.7355522513389587</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5676313638687134</v>
+        <v>0.6482086777687073</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.617241382598877</v>
+        <v>0.6445338129997253</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6840155720710754</v>
+        <v>0.2601974010467529</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8044084906578064</v>
+        <v>0.5627971291542053</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5136010050773621</v>
+        <v>0.77702397108078</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6383135318756104</v>
+        <v>0.8246365785598755</v>
       </c>
     </row>
     <row r="165">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6152170896530151</v>
+        <v>0.8350990414619446</v>
       </c>
     </row>
     <row r="166">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5079,10 +5079,10 @@
         </is>
       </c>
       <c r="E166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.677447497844696</v>
+        <v>0.7163069248199463</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7399293780326843</v>
+        <v>0.9109868407249451</v>
       </c>
     </row>
     <row r="168">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.6114582419395447</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8437055945396423</v>
+        <v>0.767855703830719</v>
       </c>
     </row>
     <row r="170">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.6225617527961731</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.3187676668167114</v>
+        <v>0.6335130333900452</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8724782466888428</v>
+        <v>0.8695344924926758</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5038226246833801</v>
+        <v>0.7338366508483887</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6113190650939941</v>
+        <v>0.9050070643424988</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5771687626838684</v>
+        <v>0.8619763255119324</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.3631279468536377</v>
+        <v>0.577910840511322</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8614095449447632</v>
+        <v>0.7389386892318726</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.5864823460578918</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6649743914604187</v>
+        <v>0.5476584434509277</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.4266336262226105</v>
+        <v>0.5068101286888123</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6336957216262817</v>
+        <v>0.90342116355896</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5680606961250305</v>
+        <v>0.4003715813159943</v>
       </c>
     </row>
     <row r="183">
@@ -5551,14 +5551,14 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3265554904937744</v>
+        <v>0.394731342792511</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.6997368931770325</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8634065985679626</v>
+        <v>0.5160159468650818</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4875545501708984</v>
+        <v>0.4003715813159943</v>
       </c>
     </row>
     <row r="187">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="E187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6368314623832703</v>
+        <v>0.5240247249603271</v>
       </c>
     </row>
     <row r="188">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="E188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.6558406352996826</v>
+        <v>0.5642993450164795</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.6846567392349243</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.3063596785068512</v>
+        <v>0.5041583776473999</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8858781456947327</v>
+        <v>0.5152066349983215</v>
       </c>
     </row>
     <row r="192">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3548375070095062</v>
+        <v>0.5531243085861206</v>
       </c>
     </row>
     <row r="193">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5835,10 +5835,10 @@
         </is>
       </c>
       <c r="E193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6997365355491638</v>
+        <v>0.2712524235248566</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.7391757369041443</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6693964600563049</v>
+        <v>0.7444829940795898</v>
       </c>
     </row>
     <row r="196">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="E196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.769239068031311</v>
+        <v>0.7772017121315002</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6082947254180908</v>
+        <v>0.6827541589736938</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9181444048881531</v>
+        <v>0.7781782746315002</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3689545392990112</v>
+        <v>0.3957852423191071</v>
       </c>
     </row>
     <row r="200">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7717381119728088</v>
+        <v>0.5075241923332214</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5185515284538269</v>
+        <v>0.360679030418396</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7778035998344421</v>
+        <v>0.6240164637565613</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8072157502174377</v>
+        <v>0.5076480507850647</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.6001455187797546</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.6839323043823242</v>
+        <v>0.7908598780632019</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7519806623458862</v>
+        <v>0.4893835783004761</v>
       </c>
     </row>
     <row r="207">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4055080413818359</v>
+        <v>0.6598783135414124</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8030769228935242</v>
+        <v>0.2849895358085632</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.9050070643424988</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5765379667282104</v>
+        <v>0.6233693957328796</v>
       </c>
     </row>
   </sheetData>
